--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>240.5895700550044</v>
+        <v>27.40147204714033</v>
       </c>
       <c r="R2">
-        <v>2165.30613049504</v>
+        <v>246.613248424263</v>
       </c>
       <c r="S2">
-        <v>0.008178908495683385</v>
+        <v>0.001676190889718651</v>
       </c>
       <c r="T2">
-        <v>0.008178908495683385</v>
+        <v>0.001676190889718651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>14766.65704428169</v>
+        <v>5127.353660824211</v>
       </c>
       <c r="R3">
-        <v>132899.9133985352</v>
+        <v>46146.18294741791</v>
       </c>
       <c r="S3">
-        <v>0.5019965608846068</v>
+        <v>0.3136482404979424</v>
       </c>
       <c r="T3">
-        <v>0.5019965608846069</v>
+        <v>0.3136482404979424</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>4143.96140347572</v>
+        <v>1495.274181198278</v>
       </c>
       <c r="R4">
-        <v>37295.65263128147</v>
+        <v>13457.4676307845</v>
       </c>
       <c r="S4">
-        <v>0.1408751057700583</v>
+        <v>0.09146825965569381</v>
       </c>
       <c r="T4">
-        <v>0.1408751057700584</v>
+        <v>0.09146825965569383</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>75.084651096</v>
+        <v>24.6284556462</v>
       </c>
       <c r="R5">
-        <v>675.7618598640001</v>
+        <v>221.6561008158</v>
       </c>
       <c r="S5">
-        <v>0.002552523330932829</v>
+        <v>0.001506561140619763</v>
       </c>
       <c r="T5">
-        <v>0.002552523330932829</v>
+        <v>0.001506561140619764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>4608.467822485801</v>
+        <v>4608.467822485799</v>
       </c>
       <c r="R6">
-        <v>41476.21040237221</v>
+        <v>41476.21040237219</v>
       </c>
       <c r="S6">
-        <v>0.1566661290295971</v>
+        <v>0.2819071824434485</v>
       </c>
       <c r="T6">
-        <v>0.1566661290295971</v>
+        <v>0.2819071824434485</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>1293.2725889328</v>
+        <v>1343.9531200074</v>
       </c>
       <c r="R7">
-        <v>11639.4533003952</v>
+        <v>12095.5780800666</v>
       </c>
       <c r="S7">
-        <v>0.04396515677067234</v>
+        <v>0.08221171373895068</v>
       </c>
       <c r="T7">
-        <v>0.04396515677067234</v>
+        <v>0.0822117137389507</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H8">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>53.86630187125778</v>
+        <v>15.329866743625</v>
       </c>
       <c r="R8">
-        <v>484.7967168413201</v>
+        <v>137.968800692625</v>
       </c>
       <c r="S8">
-        <v>0.001831199722852291</v>
+        <v>0.0009377519182932657</v>
       </c>
       <c r="T8">
-        <v>0.001831199722852292</v>
+        <v>0.0009377519182932658</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H9">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>3306.14999559108</v>
+        <v>2868.519188773874</v>
       </c>
       <c r="R9">
-        <v>29755.34996031972</v>
+        <v>25816.67269896487</v>
       </c>
       <c r="S9">
-        <v>0.1123934769107461</v>
+        <v>0.175471803957616</v>
       </c>
       <c r="T9">
-        <v>0.1123934769107461</v>
+        <v>0.175471803957616</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H10">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>927.8036277775086</v>
+        <v>836.5373182695417</v>
       </c>
       <c r="R10">
-        <v>8350.232649997577</v>
+        <v>7528.835864425875</v>
       </c>
       <c r="S10">
-        <v>0.03154093908485076</v>
+        <v>0.05117229575771689</v>
       </c>
       <c r="T10">
-        <v>0.03154093908485077</v>
+        <v>0.05117229575771689</v>
       </c>
     </row>
   </sheetData>
